--- a/medicine/Mort/Cimetière_d'Homewood/Cimetière_d'Homewood.xlsx
+++ b/medicine/Mort/Cimetière_d'Homewood/Cimetière_d'Homewood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Homewood</t>
+          <t>Cimetière_d'Homewood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Cimetière d'Homewood est un cimetière historique de Pittsburgh, dans l'État américain de Pennsylvanie. Il est situé à Point BreezePoint Breeze et bordé par Frick Park (en), le quartier de Squirrel Hill (en) et le cimetière de Smithfield, plus petit[1].
-Il a été créé en 1878 sur les 2,6 km2 de la propriété de l'homme politique William Wilkins (en), Homewood[2].
+Le Cimetière d'Homewood est un cimetière historique de Pittsburgh, dans l'État américain de Pennsylvanie. Il est situé à Point BreezePoint Breeze et bordé par Frick Park (en), le quartier de Squirrel Hill (en) et le cimetière de Smithfield, plus petit.
+Il a été créé en 1878 sur les 2,6 km2 de la propriété de l'homme politique William Wilkins (en), Homewood.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Homewood</t>
+          <t>Cimetière_d'Homewood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Inhumés notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>David Lytle Clark (1864–1939), homme d'affaires, créateur des barres chocolatées Clark &amp; Zagnut (en).
 Bertha Lamme Feicht (1869—1943), première femme ingénieure diplômée de l'Université d'État de l'Ohio et première ingénieure employée par Westinghouse.
@@ -524,21 +538,55 @@
 Henry P. Ford (en) (1837–1905), maire de Pittsburgh de 1896 à 1899.
 Erroll Garner (1921–1977), pianiste et compositeur de jazz.
 Teenie Harris (en) (1908–1998), photographe afro-américain.
-H. J. Heinz II (en) (1908–1987), industriel[3].
-H. John Heinz III (1938–1991), sénateur des États-Unis[4], son fils.
+H. J. Heinz II (en) (1908–1987), industriel.
+H. John Heinz III (1938–1991), sénateur des États-Unis, son fils.
 George Hetzel (en) (1826–1899), peintre de portraits et de paysages.
 Michael Late Benedum (en) (1869—1959), homme d'affaires, cofondateur de la Benedum-Trees Oil Company.
 John Barrett Kerfoot (en) (1816–1881), premier Évêque de l'église épiscopalienne à Pittsburgh.
 Perle Mesta (1889–1975), ambassadrice américaine au Luxembourg de 1949 à 53, importante personnalité mondaine de Washington sous les présidences Eisenhower et Nixon.
-Mac Miller (1992–2018), rappeur, chanteur et producteur de disque[5].
+Mac Miller (1992–2018), rappeur, chanteur et producteur de disque.
 Alvin P. Shapiro (en) (1920–1998), médecin et éducateur.
 Stephen Varzaly (en) (1890–1957), prêtre, journaliste et activiste ruthène.
-Ernest T. Weir (en), fondateur de Weirton Steel (en) et de National Steel (en)[6].
-William Wilkins (en) (1779–1865), sénateur des États-Unis[7].
-Sportifs
-Chuck Cooper (1926–1984), premier joueur afro-américain drafté par la NBA[8].
+Ernest T. Weir (en), fondateur de Weirton Steel (en) et de National Steel (en).
+William Wilkins (en) (1779–1865), sénateur des États-Unis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Homewood</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Homewood</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Inhumés notables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sportifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chuck Cooper (1926–1984), premier joueur afro-américain drafté par la NBA.
 Bill Bishop (1869–1932), joueur de baseball.
-Pie Traynor (1899–1972), joueur de baseball[9].
+Pie Traynor (1899–1972), joueur de baseball.
 Jock Sutherland (en) (1889–1948), entraîneur de football américain.</t>
         </is>
       </c>
